--- a/data/trans_orig/IP24-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP24-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EF2CA0F-E3BF-40CC-948C-498E5FBD827E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CAA5ED50-A0C5-4CB2-B336-437BCA9BE7FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A54045DB-5D2F-4711-837E-FCD39E8F5F2B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B44FD810-4F91-4F88-B853-B1DC8C290E01}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="680">
   <si>
     <t>Menores según el ejercicio físico  que realiza en su tiempo libre en 2007 (Tasa respuesta: 99,76%)</t>
   </si>
@@ -113,1942 +113,1972 @@
     <t>2,4%</t>
   </si>
   <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
   </si>
   <si>
     <t>1,36%</t>
   </si>
   <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>52,21%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>60,35%</t>
+  </si>
+  <si>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>62,22%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>41,25%</t>
+  </si>
+  <si>
+    <t>48,72%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>59,54%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
+  </si>
+  <si>
+    <t>47,35%</t>
+  </si>
+  <si>
+    <t>52,58%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>45,19%</t>
+  </si>
+  <si>
+    <t>57,47%</t>
+  </si>
+  <si>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>42,25%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>44,77%</t>
+  </si>
+  <si>
+    <t>41,91%</t>
+  </si>
+  <si>
+    <t>48,07%</t>
+  </si>
+  <si>
+    <t>55,13%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según el ejercicio físico  que realiza en su tiempo libre en 2012 (Tasa respuesta: 98,95%)</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>51,41%</t>
+  </si>
+  <si>
+    <t>61,91%</t>
+  </si>
+  <si>
+    <t>52,65%</t>
+  </si>
+  <si>
+    <t>70,5%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>45,97%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>51,94%</t>
+  </si>
+  <si>
+    <t>56,3%</t>
+  </si>
+  <si>
+    <t>52,41%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>52,06%</t>
+  </si>
+  <si>
+    <t>49,18%</t>
+  </si>
+  <si>
+    <t>54,7%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>50,56%</t>
+  </si>
+  <si>
+    <t>54,69%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>60,74%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
     <t>4,14%</t>
   </si>
   <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>56,64%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>59,37%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>53,6%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>Menores según el ejercicio físico  que realiza en su tiempo libre en 2016 (Tasa respuesta: 99,62%)</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>66,74%</t>
+  </si>
+  <si>
+    <t>57,42%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>58,36%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>68,47%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>56,25%</t>
+  </si>
+  <si>
+    <t>70,64%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>46,97%</t>
+  </si>
+  <si>
+    <t>54,66%</t>
+  </si>
+  <si>
+    <t>57,39%</t>
+  </si>
+  <si>
+    <t>53,72%</t>
+  </si>
+  <si>
+    <t>60,97%</t>
+  </si>
+  <si>
+    <t>54,04%</t>
+  </si>
+  <si>
+    <t>51,44%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>47,58%</t>
+  </si>
+  <si>
+    <t>59,87%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>54,07%</t>
+  </si>
+  <si>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>59,75%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>Menores según el ejercicio físico  que realiza en su tiempo libre en 2023 (Tasa respuesta: 99,38%)</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>56,85%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>67,93%</t>
+  </si>
+  <si>
+    <t>53,36%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>63,98%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>49,6%</t>
+  </si>
+  <si>
+    <t>51,15%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>55,61%</t>
+  </si>
+  <si>
+    <t>47,88%</t>
+  </si>
+  <si>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>50,79%</t>
   </si>
   <si>
     <t>16,4%</t>
   </si>
   <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>52,21%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>61,63%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>44,81%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>55,52%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>59,43%</t>
-  </si>
-  <si>
-    <t>49,8%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>52,35%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>57,46%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>41,27%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
   </si>
   <si>
     <t>1,38%</t>
   </si>
   <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>55,13%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según el ejercicio físico  que realiza en su tiempo libre en 2012 (Tasa respuesta: 98,95%)</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>52,36%</t>
-  </si>
-  <si>
-    <t>61,91%</t>
-  </si>
-  <si>
-    <t>53,37%</t>
-  </si>
-  <si>
-    <t>69,81%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>48,17%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>52,06%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>54,9%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
     <t>3,63%</t>
   </si>
   <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
   </si>
   <si>
     <t>8,58%</t>
   </si>
   <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>54,69%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>61,04%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>53,36%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>46,53%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>49,59%</t>
-  </si>
-  <si>
-    <t>56,64%</t>
-  </si>
-  <si>
-    <t>53,64%</t>
-  </si>
-  <si>
-    <t>59,61%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>53,49%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>Menores según el ejercicio físico  que realiza en su tiempo libre en 2015 (Tasa respuesta: 99,62%)</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>66,74%</t>
-  </si>
-  <si>
-    <t>56,49%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>58,36%</t>
-  </si>
-  <si>
-    <t>67,5%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>55,61%</t>
-  </si>
-  <si>
-    <t>69,98%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>54,72%</t>
-  </si>
-  <si>
-    <t>57,39%</t>
-  </si>
-  <si>
-    <t>53,57%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>54,04%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>56,8%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>45,32%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>60,15%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>53,56%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>52,93%</t>
+  </si>
+  <si>
+    <t>46,57%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
   </si>
   <si>
     <t>14,01%</t>
   </si>
   <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>53,3%</t>
-  </si>
-  <si>
-    <t>59,44%</t>
-  </si>
-  <si>
-    <t>55,76%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>Menores según el ejercicio físico  que realiza en su tiempo libre en 2023 (Tasa respuesta: 99,38%)</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>56,85%</t>
-  </si>
-  <si>
-    <t>45,97%</t>
-  </si>
-  <si>
-    <t>68,09%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>68,07%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>63,84%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>49,31%</t>
-  </si>
-  <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>46,55%</t>
-  </si>
-  <si>
-    <t>55,38%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>50,98%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
   </si>
   <si>
     <t>20,56%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>49,4%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>48,9%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
   </si>
 </sst>
 </file>
@@ -2460,7 +2490,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F13E6187-FB48-4896-BC85-A64136513494}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{216E13AF-0D6A-42CA-A82A-9B2604AFFB1F}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3511,13 +3541,13 @@
         <v>3402</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M22" s="7">
         <v>12</v>
@@ -3526,13 +3556,13 @@
         <v>7389</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3547,13 +3577,13 @@
         <v>17870</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H23" s="7">
         <v>12</v>
@@ -3562,13 +3592,13 @@
         <v>7582</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>71</v>
+        <v>127</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>126</v>
+        <v>37</v>
       </c>
       <c r="M23" s="7">
         <v>38</v>
@@ -3577,13 +3607,13 @@
         <v>25452</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3598,13 +3628,13 @@
         <v>28236</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H24" s="7">
         <v>48</v>
@@ -3613,13 +3643,13 @@
         <v>32536</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="M24" s="7">
         <v>90</v>
@@ -3628,13 +3658,13 @@
         <v>60772</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3649,13 +3679,13 @@
         <v>64170</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H25" s="7">
         <v>127</v>
@@ -3664,13 +3694,13 @@
         <v>88543</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M25" s="7">
         <v>223</v>
@@ -3679,13 +3709,13 @@
         <v>152713</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3700,13 +3730,13 @@
         <v>43225</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H26" s="7">
         <v>60</v>
@@ -3715,13 +3745,13 @@
         <v>41281</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M26" s="7">
         <v>125</v>
@@ -3730,13 +3760,13 @@
         <v>84505</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3804,13 +3834,13 @@
         <v>20638</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H28" s="7">
         <v>24</v>
@@ -3819,13 +3849,13 @@
         <v>14775</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M28" s="7">
         <v>55</v>
@@ -3837,10 +3867,10 @@
         <v>114</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3855,13 +3885,13 @@
         <v>66614</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="H29" s="7">
         <v>39</v>
@@ -3870,13 +3900,13 @@
         <v>25731</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>116</v>
+        <v>171</v>
       </c>
       <c r="M29" s="7">
         <v>138</v>
@@ -3885,13 +3915,13 @@
         <v>92346</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3906,13 +3936,13 @@
         <v>142284</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="H30" s="7">
         <v>139</v>
@@ -3921,13 +3951,13 @@
         <v>92381</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="M30" s="7">
         <v>354</v>
@@ -3936,13 +3966,13 @@
         <v>234665</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>179</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3957,13 +3987,13 @@
         <v>322938</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="H31" s="7">
         <v>553</v>
@@ -3972,13 +4002,13 @@
         <v>374317</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M31" s="7">
         <v>1039</v>
@@ -3987,13 +4017,13 @@
         <v>697255</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4008,13 +4038,13 @@
         <v>168873</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="H32" s="7">
         <v>260</v>
@@ -4023,13 +4053,13 @@
         <v>171730</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M32" s="7">
         <v>513</v>
@@ -4038,13 +4068,13 @@
         <v>340603</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4100,7 +4130,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -4120,7 +4150,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D888984E-969A-4140-834E-85A1709D3AEB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADEB79A1-4109-41CC-8932-537347BD4E8B}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4137,7 +4167,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4546,7 +4576,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -4555,13 +4585,13 @@
         <v>1392</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>201</v>
+        <v>72</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -4570,13 +4600,13 @@
         <v>1392</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4591,13 +4621,13 @@
         <v>7893</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H11" s="7">
         <v>5</v>
@@ -4606,13 +4636,13 @@
         <v>3281</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>209</v>
+        <v>162</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M11" s="7">
         <v>15</v>
@@ -4621,13 +4651,13 @@
         <v>11174</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4642,13 +4672,13 @@
         <v>29858</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H12" s="7">
         <v>20</v>
@@ -4657,13 +4687,13 @@
         <v>14279</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M12" s="7">
         <v>62</v>
@@ -4672,13 +4702,13 @@
         <v>44137</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4693,13 +4723,13 @@
         <v>35606</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H13" s="7">
         <v>82</v>
@@ -4708,13 +4738,13 @@
         <v>56379</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M13" s="7">
         <v>133</v>
@@ -4723,13 +4753,13 @@
         <v>91985</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4744,13 +4774,13 @@
         <v>10376</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H14" s="7">
         <v>23</v>
@@ -4759,13 +4789,13 @@
         <v>15730</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M14" s="7">
         <v>38</v>
@@ -4774,13 +4804,13 @@
         <v>26106</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4848,13 +4878,13 @@
         <v>4246</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -4863,13 +4893,13 @@
         <v>6557</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>29</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -4881,10 +4911,10 @@
         <v>246</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>29</v>
+        <v>118</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4899,13 +4929,13 @@
         <v>52604</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H17" s="7">
         <v>15</v>
@@ -4914,13 +4944,13 @@
         <v>10793</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>73</v>
+        <v>253</v>
       </c>
       <c r="M17" s="7">
         <v>91</v>
@@ -4929,13 +4959,13 @@
         <v>63396</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4950,13 +4980,13 @@
         <v>117158</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H18" s="7">
         <v>112</v>
@@ -4965,13 +4995,13 @@
         <v>80767</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="M18" s="7">
         <v>284</v>
@@ -4980,13 +5010,13 @@
         <v>197924</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5001,13 +5031,13 @@
         <v>235451</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H19" s="7">
         <v>368</v>
@@ -5016,13 +5046,13 @@
         <v>252138</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M19" s="7">
         <v>702</v>
@@ -5031,13 +5061,13 @@
         <v>487589</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5052,13 +5082,13 @@
         <v>79312</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>275</v>
+        <v>235</v>
       </c>
       <c r="H20" s="7">
         <v>144</v>
@@ -5067,13 +5097,13 @@
         <v>97610</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M20" s="7">
         <v>256</v>
@@ -5082,13 +5112,13 @@
         <v>176922</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5156,13 +5186,13 @@
         <v>2288</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -5171,13 +5201,13 @@
         <v>2653</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M22" s="7">
         <v>7</v>
@@ -5186,13 +5216,13 @@
         <v>4941</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>289</v>
+        <v>118</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>167</v>
+        <v>290</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5207,13 +5237,13 @@
         <v>14333</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H23" s="7">
         <v>9</v>
@@ -5222,13 +5252,13 @@
         <v>6441</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>73</v>
+        <v>294</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M23" s="7">
         <v>30</v>
@@ -5237,13 +5267,13 @@
         <v>20775</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5258,13 +5288,13 @@
         <v>49824</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H24" s="7">
         <v>51</v>
@@ -5273,13 +5303,13 @@
         <v>36377</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="M24" s="7">
         <v>123</v>
@@ -5288,13 +5318,13 @@
         <v>86201</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5309,13 +5339,13 @@
         <v>74608</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="H25" s="7">
         <v>128</v>
@@ -5324,13 +5354,13 @@
         <v>91231</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="M25" s="7">
         <v>232</v>
@@ -5339,13 +5369,13 @@
         <v>165839</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5360,13 +5390,13 @@
         <v>28759</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="H26" s="7">
         <v>44</v>
@@ -5375,13 +5405,13 @@
         <v>30110</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="M26" s="7">
         <v>85</v>
@@ -5390,13 +5420,13 @@
         <v>58869</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5464,13 +5494,13 @@
         <v>6533</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>242</v>
+        <v>328</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="H28" s="7">
         <v>16</v>
@@ -5479,13 +5509,13 @@
         <v>10602</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>115</v>
+        <v>331</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>328</v>
+        <v>23</v>
       </c>
       <c r="M28" s="7">
         <v>25</v>
@@ -5494,13 +5524,13 @@
         <v>17135</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>330</v>
+        <v>205</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5515,13 +5545,13 @@
         <v>75472</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>90</v>
+        <v>334</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>77</v>
+        <v>335</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="H29" s="7">
         <v>29</v>
@@ -5530,13 +5560,13 @@
         <v>20515</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>27</v>
+        <v>339</v>
       </c>
       <c r="M29" s="7">
         <v>137</v>
@@ -5545,13 +5575,13 @@
         <v>95986</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>337</v>
+        <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5566,13 +5596,13 @@
         <v>196840</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="H30" s="7">
         <v>183</v>
@@ -5581,13 +5611,13 @@
         <v>131422</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>342</v>
+        <v>209</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="M30" s="7">
         <v>469</v>
@@ -5596,13 +5626,13 @@
         <v>328263</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5617,13 +5647,13 @@
         <v>345665</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="H31" s="7">
         <v>578</v>
@@ -5632,13 +5662,13 @@
         <v>399748</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="M31" s="7">
         <v>1067</v>
@@ -5647,13 +5677,13 @@
         <v>745413</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>53</v>
+        <v>356</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5668,13 +5698,13 @@
         <v>118446</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="H32" s="7">
         <v>211</v>
@@ -5683,13 +5713,13 @@
         <v>143451</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>359</v>
+        <v>321</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>219</v>
+        <v>363</v>
       </c>
       <c r="M32" s="7">
         <v>379</v>
@@ -5698,13 +5728,13 @@
         <v>261896</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>360</v>
+        <v>87</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5760,7 +5790,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -5780,7 +5810,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26716258-37D5-4D9A-A088-550CB339A003}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7103A9F-B565-42C9-AEF7-B5E769BDE35E}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5797,7 +5827,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6182,7 +6212,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>162</v>
+        <v>367</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -6191,13 +6221,13 @@
         <v>2577</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -6206,13 +6236,13 @@
         <v>2577</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6227,13 +6257,13 @@
         <v>4951</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -6242,13 +6272,13 @@
         <v>2120</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="M11" s="7">
         <v>10</v>
@@ -6257,13 +6287,13 @@
         <v>7071</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>128</v>
+        <v>380</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6278,13 +6308,13 @@
         <v>10102</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="H12" s="7">
         <v>11</v>
@@ -6293,13 +6323,13 @@
         <v>7032</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="M12" s="7">
         <v>25</v>
@@ -6308,13 +6338,13 @@
         <v>17134</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6329,13 +6359,13 @@
         <v>45326</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="H13" s="7">
         <v>53</v>
@@ -6344,13 +6374,13 @@
         <v>34652</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>102</v>
+        <v>396</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="M13" s="7">
         <v>119</v>
@@ -6359,13 +6389,13 @@
         <v>79979</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6380,13 +6410,13 @@
         <v>7535</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="H14" s="7">
         <v>18</v>
@@ -6395,13 +6425,13 @@
         <v>12996</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="M14" s="7">
         <v>29</v>
@@ -6410,13 +6440,13 @@
         <v>20532</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6484,13 +6514,13 @@
         <v>10033</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -6499,13 +6529,13 @@
         <v>2158</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>409</v>
+        <v>246</v>
       </c>
       <c r="M16" s="7">
         <v>19</v>
@@ -6514,13 +6544,13 @@
         <v>12191</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6535,13 +6565,13 @@
         <v>43177</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="H17" s="7">
         <v>29</v>
@@ -6550,13 +6580,13 @@
         <v>17953</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>245</v>
+        <v>420</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="M17" s="7">
         <v>89</v>
@@ -6565,13 +6595,13 @@
         <v>61131</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>419</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6586,13 +6616,13 @@
         <v>114771</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="H18" s="7">
         <v>112</v>
@@ -6601,13 +6631,13 @@
         <v>78028</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="M18" s="7">
         <v>266</v>
@@ -6616,13 +6646,13 @@
         <v>192799</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>319</v>
+        <v>430</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6637,13 +6667,13 @@
         <v>247152</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="H19" s="7">
         <v>406</v>
@@ -6652,13 +6682,13 @@
         <v>270256</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="M19" s="7">
         <v>764</v>
@@ -6667,13 +6697,13 @@
         <v>517407</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6688,13 +6718,13 @@
         <v>71303</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="H20" s="7">
         <v>161</v>
@@ -6703,13 +6733,13 @@
         <v>102538</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>192</v>
+        <v>446</v>
       </c>
       <c r="M20" s="7">
         <v>266</v>
@@ -6718,13 +6748,13 @@
         <v>173841</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>443</v>
+        <v>364</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6792,13 +6822,13 @@
         <v>558</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -6807,13 +6837,13 @@
         <v>613</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>448</v>
+        <v>117</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -6822,13 +6852,13 @@
         <v>1172</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6843,13 +6873,13 @@
         <v>14349</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="H23" s="7">
         <v>19</v>
@@ -6858,13 +6888,13 @@
         <v>11854</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>125</v>
+        <v>368</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="M23" s="7">
         <v>40</v>
@@ -6873,13 +6903,13 @@
         <v>26203</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6894,13 +6924,13 @@
         <v>41347</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>460</v>
+        <v>176</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>461</v>
+        <v>149</v>
       </c>
       <c r="H24" s="7">
         <v>41</v>
@@ -6909,13 +6939,13 @@
         <v>28725</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>464</v>
+        <v>277</v>
       </c>
       <c r="M24" s="7">
         <v>99</v>
@@ -6924,13 +6954,13 @@
         <v>70072</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>275</v>
+        <v>465</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6945,13 +6975,13 @@
         <v>84384</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H25" s="7">
         <v>139</v>
@@ -6960,13 +6990,13 @@
         <v>92678</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M25" s="7">
         <v>260</v>
@@ -6975,13 +7005,13 @@
         <v>177061</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6996,10 +7026,10 @@
         <v>45566</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>477</v>
+        <v>235</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>478</v>
@@ -7029,10 +7059,10 @@
         <v>482</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>234</v>
+        <v>483</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>66</v>
+        <v>484</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7100,13 +7130,13 @@
         <v>10591</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>72</v>
+        <v>485</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>483</v>
+        <v>115</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>159</v>
+        <v>486</v>
       </c>
       <c r="H28" s="7">
         <v>9</v>
@@ -7115,13 +7145,13 @@
         <v>5349</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>411</v>
+        <v>487</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="M28" s="7">
         <v>25</v>
@@ -7130,13 +7160,13 @@
         <v>15939</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7151,13 +7181,13 @@
         <v>62477</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="H29" s="7">
         <v>51</v>
@@ -7166,13 +7196,13 @@
         <v>31928</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="M29" s="7">
         <v>139</v>
@@ -7181,13 +7211,13 @@
         <v>94405</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>494</v>
+        <v>380</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>127</v>
+        <v>498</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7202,13 +7232,13 @@
         <v>166219</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="H30" s="7">
         <v>164</v>
@@ -7217,13 +7247,13 @@
         <v>113785</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="M30" s="7">
         <v>390</v>
@@ -7232,13 +7262,13 @@
         <v>280005</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7253,13 +7283,13 @@
         <v>376862</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="H31" s="7">
         <v>598</v>
@@ -7268,13 +7298,13 @@
         <v>397586</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="M31" s="7">
         <v>1143</v>
@@ -7283,13 +7313,13 @@
         <v>774448</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>469</v>
+        <v>515</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7304,13 +7334,13 @@
         <v>124404</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="H32" s="7">
         <v>237</v>
@@ -7319,13 +7349,13 @@
         <v>154366</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>111</v>
+        <v>520</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>275</v>
+        <v>428</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>514</v>
+        <v>61</v>
       </c>
       <c r="M32" s="7">
         <v>421</v>
@@ -7334,13 +7364,13 @@
         <v>278770</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>517</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7396,7 +7426,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -7416,7 +7446,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E562391-4690-4409-BC93-D95949D919C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{512E3B23-B741-4079-B1BF-F6F9EB48F161}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7433,7 +7463,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7836,13 +7866,13 @@
         <v>2266</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>519</v>
+        <v>119</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -7851,13 +7881,13 @@
         <v>424</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>523</v>
+        <v>30</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -7866,13 +7896,13 @@
         <v>2690</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7887,13 +7917,13 @@
         <v>4048</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>480</v>
+        <v>530</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
@@ -7902,13 +7932,13 @@
         <v>2585</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>485</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="M11" s="7">
         <v>8</v>
@@ -7917,13 +7947,13 @@
         <v>6633</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>156</v>
+        <v>206</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7938,13 +7968,13 @@
         <v>6587</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="H12" s="7">
         <v>10</v>
@@ -7953,13 +7983,13 @@
         <v>8519</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>77</v>
+        <v>539</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="M12" s="7">
         <v>19</v>
@@ -7968,13 +7998,13 @@
         <v>15106</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>424</v>
+        <v>541</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7989,13 +8019,13 @@
         <v>32898</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="H13" s="7">
         <v>38</v>
@@ -8004,13 +8034,13 @@
         <v>27324</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>315</v>
+        <v>547</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="M13" s="7">
         <v>83</v>
@@ -8019,13 +8049,13 @@
         <v>60221</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8040,13 +8070,13 @@
         <v>12070</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="H14" s="7">
         <v>16</v>
@@ -8055,13 +8085,13 @@
         <v>12351</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>549</v>
+        <v>88</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="M14" s="7">
         <v>36</v>
@@ -8070,13 +8100,13 @@
         <v>24421</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>173</v>
+        <v>558</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8144,13 +8174,13 @@
         <v>7927</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>556</v>
+        <v>420</v>
       </c>
       <c r="H16" s="7">
         <v>20</v>
@@ -8159,13 +8189,13 @@
         <v>12115</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>27</v>
+        <v>565</v>
       </c>
       <c r="M16" s="7">
         <v>36</v>
@@ -8174,13 +8204,13 @@
         <v>20042</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>327</v>
+        <v>567</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8195,13 +8225,13 @@
         <v>54474</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>562</v>
+        <v>570</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>563</v>
+        <v>178</v>
       </c>
       <c r="H17" s="7">
         <v>52</v>
@@ -8210,13 +8240,13 @@
         <v>33380</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>494</v>
+        <v>572</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="M17" s="7">
         <v>125</v>
@@ -8225,13 +8255,13 @@
         <v>87854</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8246,13 +8276,13 @@
         <v>127228</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="H18" s="7">
         <v>114</v>
@@ -8261,13 +8291,13 @@
         <v>82700</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>572</v>
+        <v>391</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>91</v>
+        <v>580</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="M18" s="7">
         <v>265</v>
@@ -8276,13 +8306,13 @@
         <v>209929</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>173</v>
+        <v>558</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>220</v>
+        <v>583</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8297,13 +8327,13 @@
         <v>219905</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>575</v>
+        <v>584</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>576</v>
+        <v>585</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>577</v>
+        <v>586</v>
       </c>
       <c r="H19" s="7">
         <v>324</v>
@@ -8312,13 +8342,13 @@
         <v>228945</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>578</v>
+        <v>587</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="M19" s="7">
         <v>609</v>
@@ -8327,13 +8357,13 @@
         <v>448850</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>505</v>
+        <v>590</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>581</v>
+        <v>591</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8348,13 +8378,13 @@
         <v>80331</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>33</v>
+        <v>593</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="H20" s="7">
         <v>129</v>
@@ -8363,13 +8393,13 @@
         <v>90480</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>585</v>
+        <v>596</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>586</v>
+        <v>597</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>587</v>
+        <v>598</v>
       </c>
       <c r="M20" s="7">
         <v>254</v>
@@ -8378,13 +8408,13 @@
         <v>170810</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>588</v>
+        <v>599</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>589</v>
+        <v>600</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>590</v>
+        <v>601</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8452,13 +8482,13 @@
         <v>2401</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>160</v>
+        <v>602</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>591</v>
+        <v>328</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>121</v>
+        <v>603</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -8467,13 +8497,13 @@
         <v>2424</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>519</v>
+        <v>119</v>
       </c>
       <c r="M22" s="7">
         <v>9</v>
@@ -8482,13 +8512,13 @@
         <v>4825</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>594</v>
+        <v>606</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>595</v>
+        <v>491</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>596</v>
+        <v>337</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8503,13 +8533,13 @@
         <v>34780</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>597</v>
+        <v>607</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>378</v>
+        <v>608</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>598</v>
+        <v>609</v>
       </c>
       <c r="H23" s="7">
         <v>33</v>
@@ -8518,13 +8548,13 @@
         <v>19892</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>599</v>
+        <v>610</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>600</v>
+        <v>611</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>601</v>
+        <v>612</v>
       </c>
       <c r="M23" s="7">
         <v>80</v>
@@ -8533,13 +8563,13 @@
         <v>54672</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>602</v>
+        <v>613</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>604</v>
+        <v>346</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8554,13 +8584,13 @@
         <v>45173</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>605</v>
+        <v>194</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="H24" s="7">
         <v>59</v>
@@ -8569,13 +8599,13 @@
         <v>40249</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>610</v>
+        <v>619</v>
       </c>
       <c r="M24" s="7">
         <v>117</v>
@@ -8584,13 +8614,13 @@
         <v>85422</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>611</v>
+        <v>620</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8605,13 +8635,13 @@
         <v>64776</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
       <c r="H25" s="7">
         <v>93</v>
@@ -8620,13 +8650,13 @@
         <v>64336</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>617</v>
+        <v>626</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>618</v>
+        <v>627</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>619</v>
+        <v>628</v>
       </c>
       <c r="M25" s="7">
         <v>180</v>
@@ -8635,13 +8665,13 @@
         <v>129112</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>620</v>
+        <v>629</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>622</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8656,13 +8686,13 @@
         <v>26720</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
       <c r="H26" s="7">
         <v>40</v>
@@ -8671,13 +8701,13 @@
         <v>24468</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
       <c r="M26" s="7">
         <v>81</v>
@@ -8686,13 +8716,13 @@
         <v>51187</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>629</v>
+        <v>637</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>631</v>
+        <v>639</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8760,13 +8790,13 @@
         <v>12594</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>632</v>
+        <v>333</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>120</v>
+        <v>640</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>633</v>
+        <v>641</v>
       </c>
       <c r="H28" s="7">
         <v>26</v>
@@ -8775,13 +8805,13 @@
         <v>14964</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>634</v>
+        <v>642</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>201</v>
+        <v>330</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
       <c r="M28" s="7">
         <v>50</v>
@@ -8790,13 +8820,13 @@
         <v>27558</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>334</v>
+        <v>159</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>636</v>
+        <v>644</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8811,13 +8841,13 @@
         <v>93301</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>639</v>
+        <v>647</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="H29" s="7">
         <v>89</v>
@@ -8826,13 +8856,13 @@
         <v>55857</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>297</v>
+        <v>649</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>641</v>
+        <v>457</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>642</v>
+        <v>650</v>
       </c>
       <c r="M29" s="7">
         <v>213</v>
@@ -8841,13 +8871,13 @@
         <v>149158</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>643</v>
+        <v>651</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>645</v>
+        <v>653</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8862,13 +8892,13 @@
         <v>178988</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>646</v>
+        <v>654</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>647</v>
+        <v>404</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="H30" s="7">
         <v>183</v>
@@ -8877,13 +8907,13 @@
         <v>131469</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>322</v>
+        <v>657</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>650</v>
+        <v>658</v>
       </c>
       <c r="M30" s="7">
         <v>401</v>
@@ -8892,13 +8922,13 @@
         <v>310457</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>652</v>
+        <v>660</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>278</v>
+        <v>661</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8913,13 +8943,13 @@
         <v>317578</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>653</v>
+        <v>662</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>654</v>
+        <v>663</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>655</v>
+        <v>664</v>
       </c>
       <c r="H31" s="7">
         <v>456</v>
@@ -8928,13 +8958,13 @@
         <v>321776</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>656</v>
+        <v>665</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>657</v>
+        <v>666</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>658</v>
+        <v>667</v>
       </c>
       <c r="M31" s="7">
         <v>873</v>
@@ -8943,13 +8973,13 @@
         <v>639355</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>659</v>
+        <v>668</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>660</v>
+        <v>669</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>661</v>
+        <v>670</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8964,13 +8994,13 @@
         <v>119121</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>662</v>
+        <v>671</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>663</v>
+        <v>672</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>664</v>
+        <v>673</v>
       </c>
       <c r="H32" s="7">
         <v>185</v>
@@ -8979,13 +9009,13 @@
         <v>127298</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>665</v>
+        <v>674</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>316</v>
+        <v>675</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="M32" s="7">
         <v>371</v>
@@ -8994,13 +9024,13 @@
         <v>246419</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>667</v>
+        <v>677</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>668</v>
+        <v>678</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>669</v>
+        <v>679</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9056,7 +9086,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
